--- a/ReporteCodeuium/Data/Input/ExcelURLCodeuim.xlsx
+++ b/ReporteCodeuium/Data/Input/ExcelURLCodeuim.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.mercado\Documents\UiPath\ReporteCodeuium\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eisei\rpa\ReporteCodeium\ReporteCodeuium\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD6D61D-E691-4420-A943-5DAC036A50FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AB417B-2E66-4785-A8FA-AB9499E417B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="375" windowWidth="18735" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Fernando Chavez</t>
   </si>
@@ -45,14 +45,20 @@
     <t>https://codeium.com/profile/fernando_chavez_eisei_2024</t>
   </si>
   <si>
-    <t>Julio Alonso García G. (@reflectively-big-goat-16986) Profile | Codeium</t>
+    <t>Daniel Mercado</t>
+  </si>
+  <si>
+    <t>https://codeium.com/profile/capably-climactic-squeaker-88502</t>
+  </si>
+  <si>
+    <t>https://codeium.com/profile/reflectively-big-goat-16986</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,14 +75,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -120,11 +118,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -132,10 +129,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
@@ -491,7 +486,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="116" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -519,13 +516,17 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -543,7 +544,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="18"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" tooltip="https://codeium.com/profile/reflectively-big-goat-16986" display="https://codeium.com/profile/reflectively-big-goat-16986" xr:uid="{8B69EEB7-7554-41B8-8FBA-ECAE6FC0C96C}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{8B69EEB7-7554-41B8-8FBA-ECAE6FC0C96C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
